--- a/Program flowchart.V2.xlsx
+++ b/Program flowchart.V2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Liu\Desktop\QF635\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Desktop\QF635\Project\QF635-2025-SMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4186EC-2D54-4E15-89FB-B61120595966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F0E56-9565-4A47-AA6B-89FD76CC9283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flowchart" sheetId="1" r:id="rId1"/>
+    <sheet name="Action items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Pre-trade check</t>
   </si>
@@ -262,6 +263,96 @@
   </si>
   <si>
     <t>Live risk monitoring (1. per trade loss limit daily/lifetime; 2. overall portfolio loss limit-daily/ life time; 3. existing position risk concentration)</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>trade log and record keeping to enhance -&gt; able to stop and resume the trade with details instead of starting a new trading system</t>
+  </si>
+  <si>
+    <t>Need position management system to decide the size of trades</t>
+  </si>
+  <si>
+    <t>Risk management system</t>
+  </si>
+  <si>
+    <t>Alerting system</t>
+  </si>
+  <si>
+    <t>Reporting system</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>System module load system</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Integrate trade viewer to GUI</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>File to track PnL life to date and Daily PnL. Static PnL data and append onwards.</t>
+  </si>
+  <si>
+    <t>Presenting equity curve (overall portfolio FV) lively updated.</t>
+  </si>
+  <si>
+    <t>With forward test for 1 week?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>can ML remember the path after stop and resmue</t>
+  </si>
+  <si>
+    <t>Backtest</t>
+  </si>
+  <si>
+    <t>Execution function - Market order direct funtion</t>
+  </si>
+  <si>
+    <t>Execution function - market order splligage threshold.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution function - Stop loss </t>
+  </si>
+  <si>
+    <t>Execution function - piece meal purchase / sell</t>
+  </si>
+  <si>
+    <t>VWAP/POV purchase/sell from Binance API</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>Order manager to done</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Telegtam  api - gross / net exposure max drawdown daily PL/MTPL/LTD PL/ volatility/ Beta/Sharpe</t>
   </si>
 </sst>
 </file>
@@ -299,7 +390,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,7 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,9 +551,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -460,17 +566,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,22 +619,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2200,8 +2329,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2216,7 +2345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20569029" y="4649029"/>
+          <a:off x="6965424" y="5197669"/>
           <a:ext cx="709821" cy="265871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3086,398 +3215,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G15"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="79.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="79.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K3" s="18">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="17">
         <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K4" s="18">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="17">
         <v>2.1</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K5" s="18">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="17">
         <v>2.2000000000000002</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K6" s="18" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
+    <row r="8" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="38"/>
       <c r="C8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="25"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="18" t="s">
+      <c r="H8" s="30"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
+    <row r="9" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="38"/>
       <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="36" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="18">
+      <c r="H9" s="30"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="17">
         <v>4.2</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+    <row r="10" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38"/>
       <c r="C10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="25"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="18">
+      <c r="H10" s="30"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="17">
         <v>5</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+    <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="38"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="18">
+      <c r="H11" s="30"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="17">
         <v>6.1</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="38"/>
       <c r="C12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="25"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="18">
+      <c r="H12" s="30"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="17">
         <v>6.2</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="38"/>
       <c r="C13" s="8"/>
       <c r="G13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="18">
+      <c r="H13" s="30"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="17">
         <v>6.3</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
+    <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="38"/>
       <c r="C14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="25"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="19" t="s">
+      <c r="H14" s="30"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
+    <row r="15" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
       <c r="C15" s="8"/>
       <c r="G15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="19">
+      <c r="H15" s="31"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="18">
         <v>7.3</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="38"/>
       <c r="C16" s="8"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="18">
+      <c r="J16" s="33"/>
+      <c r="K16" s="17">
         <v>8</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
+    <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="38"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
       <c r="C18" s="8"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
+    <row r="19" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="38"/>
       <c r="C19" s="8"/>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="41" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="18">
+      <c r="K19" s="17">
         <v>1</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
       <c r="C20" s="8"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <v>2.1</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
+    <row r="21" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="K22" s="18" t="s">
+    <row r="22" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="K23" s="18" t="s">
+    <row r="23" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K23" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="K24" s="18">
+      <c r="K24" s="17">
         <v>6.1</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="18">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="17">
         <v>6.2</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="18">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="17">
         <v>6.3</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+    <row r="27" spans="2:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="18" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="18">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="17">
         <v>7.3</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+    <row r="29" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="18">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="17">
         <v>8</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3496,4 +3625,195 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA48DBC-2A1E-4FDC-87FD-D35BE9BCBC0B}">
+  <dimension ref="A2:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program flowchart.V2.xlsx
+++ b/Program flowchart.V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Desktop\QF635\Project\QF635-2025-SMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F0E56-9565-4A47-AA6B-89FD76CC9283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15B010-46AD-4618-833A-969BCF48E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>Pre-trade check</t>
   </si>
@@ -307,9 +307,6 @@
     <t>File to track PnL life to date and Daily PnL. Static PnL data and append onwards.</t>
   </si>
   <si>
-    <t>Presenting equity curve (overall portfolio FV) lively updated.</t>
-  </si>
-  <si>
     <t>With forward test for 1 week?</t>
   </si>
   <si>
@@ -353,6 +350,24 @@
   </si>
   <si>
     <t>Telegtam  api - gross / net exposure max drawdown daily PL/MTPL/LTD PL/ volatility/ Beta/Sharpe</t>
+  </si>
+  <si>
+    <t>YR</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>YR (OPTIONAL)</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Presenting AUM curve (overall portfolio FV) lively updated.</t>
+  </si>
+  <si>
+    <t>to get the available margin in the DataRetriver</t>
   </si>
 </sst>
 </file>
@@ -390,7 +405,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +463,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -566,11 +593,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -581,20 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,29 +647,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3270,20 +3298,20 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="38" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -3294,11 +3322,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="30"/>
-      <c r="J8" s="33"/>
+      <c r="H8" s="42"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="17" t="s">
         <v>43</v>
       </c>
@@ -3307,18 +3335,18 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="J9" s="33"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="17">
         <v>4.2</v>
       </c>
@@ -3327,11 +3355,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="30"/>
-      <c r="J10" s="33"/>
+      <c r="H10" s="42"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="17">
         <v>5</v>
       </c>
@@ -3340,18 +3368,18 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="23" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="J11" s="33"/>
+      <c r="H11" s="42"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="17">
         <v>6.1</v>
       </c>
@@ -3360,11 +3388,11 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="30"/>
-      <c r="J12" s="33"/>
+      <c r="H12" s="42"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="17">
         <v>6.2</v>
       </c>
@@ -3373,13 +3401,13 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8"/>
       <c r="G13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="42"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="17">
         <v>6.3</v>
       </c>
@@ -3388,11 +3416,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="30"/>
-      <c r="J14" s="33"/>
+      <c r="H14" s="42"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="18" t="s">
         <v>36</v>
       </c>
@@ -3401,13 +3429,13 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="8"/>
       <c r="G15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="J15" s="33"/>
+      <c r="H15" s="43"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="18">
         <v>7.3</v>
       </c>
@@ -3416,9 +3444,9 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8"/>
-      <c r="J16" s="33"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="17">
         <v>8</v>
       </c>
@@ -3427,16 +3455,16 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="8"/>
       <c r="J18" s="4"/>
       <c r="K18" s="18"/>
@@ -3445,9 +3473,9 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="8"/>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="25" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="4"/>
@@ -3459,7 +3487,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="8"/>
       <c r="J20" s="4"/>
       <c r="K20" s="17">
@@ -3470,14 +3498,14 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="26" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="17" t="s">
@@ -3516,17 +3544,17 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="17">
         <v>6.2</v>
       </c>
@@ -3535,17 +3563,17 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="17">
         <v>6.3</v>
       </c>
@@ -3554,17 +3582,17 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="17" t="s">
         <v>36</v>
       </c>
@@ -3573,17 +3601,17 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="17">
         <v>7.3</v>
       </c>
@@ -3592,17 +3620,17 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="17">
         <v>8</v>
       </c>
@@ -3629,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA48DBC-2A1E-4FDC-87FD-D35BE9BCBC0B}">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3641,176 +3669,240 @@
     <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="B18" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="C20" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="C21" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="C22" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="29" t="s">
         <v>60</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Program flowchart.V2.xlsx
+++ b/Program flowchart.V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Desktop\QF635\Project\QF635-2025-SMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15B010-46AD-4618-833A-969BCF48E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96674AA9-5248-4FB1-B3B1-7610E2067D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>Pre-trade check</t>
   </si>
@@ -367,7 +367,13 @@
     <t>Presenting AUM curve (overall portfolio FV) lively updated.</t>
   </si>
   <si>
-    <t>to get the available margin in the DataRetriver</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>o/s</t>
+  </si>
+  <si>
+    <t>Pending testing</t>
   </si>
 </sst>
 </file>
@@ -3660,7 +3666,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3680,8 +3686,8 @@
       <c r="D2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
-        <v>83</v>
+      <c r="F2" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3695,6 +3701,9 @@
       <c r="D3" s="27" t="s">
         <v>78</v>
       </c>
+      <c r="F3" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
@@ -3759,6 +3768,9 @@
       <c r="D9" s="27" t="s">
         <v>78</v>
       </c>
+      <c r="F9" s="27" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -3771,6 +3783,9 @@
       <c r="D10" s="27" t="s">
         <v>78</v>
       </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -3783,6 +3798,9 @@
       <c r="D11" s="27" t="s">
         <v>78</v>
       </c>
+      <c r="F11" s="27" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -3795,7 +3813,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3823,10 +3841,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>76</v>
       </c>
@@ -3837,8 +3855,11 @@
       <c r="D18" s="27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
@@ -3849,7 +3870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>50</v>
       </c>
@@ -3860,7 +3881,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>51</v>
       </c>
@@ -3871,7 +3892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>57</v>
       </c>
@@ -3882,7 +3903,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>59</v>
       </c>
@@ -3893,7 +3914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>61</v>
       </c>
@@ -3903,6 +3924,9 @@
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
         <v>78</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Program flowchart.V2.xlsx
+++ b/Program flowchart.V2.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Desktop\QF635\Project\QF635-2025-SMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96674AA9-5248-4FB1-B3B1-7610E2067D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E9DD7C-836C-4875-9530-622F734EC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flowchart" sheetId="1" r:id="rId1"/>
     <sheet name="Action items" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="OrderManager" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -103,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>Pre-trade check</t>
   </si>
@@ -322,9 +324,6 @@
     <t>Execution function - Market order direct funtion</t>
   </si>
   <si>
-    <t>Execution function - market order splligage threshold.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Execution function - Stop loss </t>
   </si>
   <si>
@@ -374,13 +373,88 @@
   </si>
   <si>
     <t>Pending testing</t>
+  </si>
+  <si>
+    <t>to extract from Ed code</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Abondended</t>
+  </si>
+  <si>
+    <t>List _AllOrder=[]</t>
+  </si>
+  <si>
+    <t>Trad_ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Open price</t>
+  </si>
+  <si>
+    <t>Open quantity</t>
+  </si>
+  <si>
+    <t>Quantity filled</t>
+  </si>
+  <si>
+    <t>Buy/sell</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>df[]</t>
+  </si>
+  <si>
+    <t>df['Status'=New/PF]</t>
+  </si>
+  <si>
+    <t>getroderinfo('7')</t>
+  </si>
+  <si>
+    <t>for order in</t>
+  </si>
+  <si>
+    <t>Push to store (write to csv)</t>
+  </si>
+  <si>
+    <t>Purge (in-memory)</t>
+  </si>
+  <si>
+    <t>Push remaining</t>
+  </si>
+  <si>
+    <t>Reading last record</t>
+  </si>
+  <si>
+    <t>Execution function - market order slippage threshold.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +483,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -549,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -662,6 +744,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2976,6 +3061,191 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>4.2b</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6CBB86-1175-4CFD-BADB-83CE34379339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4930140" y="822960"/>
+          <a:ext cx="6858000" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1244FB-F6A6-3463-3CFB-9F8257B099CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="1188720"/>
+          <a:ext cx="5905500" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B318025A-9CBA-F40C-0999-4EE2A5EE93CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="3200400"/>
+          <a:ext cx="5897880" cy="1158240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3663,10 +3933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA48DBC-2A1E-4FDC-87FD-D35BE9BCBC0B}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3675,7 +3945,7 @@
     <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -3684,13 +3954,16 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -3699,13 +3972,16 @@
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -3713,21 +3989,27 @@
         <v>62</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -3739,10 +4021,10 @@
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -3754,10 +4036,13 @@
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3766,79 +4051,79 @@
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D12" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="B16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3846,17 +4131,17 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3867,7 +4152,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3878,7 +4163,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3889,7 +4174,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3900,7 +4185,7 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3911,7 +4196,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3923,10 +4208,192 @@
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9111AA00-9265-45C7-A3EB-BCF5F7B14F32}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CB3BFF-BF20-4740-BF0B-17B05AC98E59}">
+  <dimension ref="H4:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Program flowchart.V2.xlsx
+++ b/Program flowchart.V2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Desktop\QF635\Project\QF635-2025-SMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E9DD7C-836C-4875-9530-622F734EC634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11CD2A0-795F-4E8F-817E-B967B644B96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31620" yWindow="855" windowWidth="18435" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flowchart" sheetId="1" r:id="rId1"/>
     <sheet name="Action items" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="OrderManager" sheetId="3" r:id="rId4"/>
+    <sheet name="ppt planning" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="OrderManager" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
   <si>
     <t>Pre-trade check</t>
   </si>
@@ -448,6 +449,51 @@
   </si>
   <si>
     <t>Execution function - market order slippage threshold.</t>
+  </si>
+  <si>
+    <t>backtest</t>
+  </si>
+  <si>
+    <t>Connection feature need to include.</t>
+  </si>
+  <si>
+    <t>Introduction overall structure</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Strategy_soft CB_sizing</t>
+  </si>
+  <si>
+    <t>Risk-circuitbreaker (logic)</t>
+  </si>
+  <si>
+    <t>Execution,alerting (function)</t>
+  </si>
+  <si>
+    <t>Reporting (PR)</t>
+  </si>
+  <si>
+    <t>Demo:</t>
+  </si>
+  <si>
+    <t>- Alerting testing</t>
+  </si>
+  <si>
+    <t>- start &lt;-&gt; resume</t>
+  </si>
+  <si>
+    <t>- Connectivity</t>
+  </si>
+  <si>
+    <t>- Audit trail</t>
   </si>
 </sst>
 </file>
@@ -702,6 +748,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -744,9 +793,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3574,7 +3620,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="13"/>
@@ -3584,10 +3630,10 @@
       <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="41" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="17" t="s">
@@ -3598,11 +3644,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="42"/>
-      <c r="J8" s="39"/>
+      <c r="H8" s="45"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="17" t="s">
         <v>43</v>
       </c>
@@ -3611,7 +3657,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3621,8 +3667,8 @@
       <c r="G9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="J9" s="39"/>
+      <c r="H9" s="45"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="17">
         <v>4.2</v>
       </c>
@@ -3631,11 +3677,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="42"/>
-      <c r="J10" s="39"/>
+      <c r="H10" s="45"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="17">
         <v>5</v>
       </c>
@@ -3644,7 +3690,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
@@ -3654,8 +3700,8 @@
       <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="J11" s="39"/>
+      <c r="H11" s="45"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="17">
         <v>6.1</v>
       </c>
@@ -3664,11 +3710,11 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="42"/>
-      <c r="J12" s="39"/>
+      <c r="H12" s="45"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="17">
         <v>6.2</v>
       </c>
@@ -3677,13 +3723,13 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8"/>
       <c r="G13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="J13" s="39"/>
+      <c r="H13" s="45"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="17">
         <v>6.3</v>
       </c>
@@ -3692,11 +3738,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="42"/>
-      <c r="J14" s="39"/>
+      <c r="H14" s="45"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="18" t="s">
         <v>36</v>
       </c>
@@ -3705,13 +3751,13 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="8"/>
       <c r="G15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="J15" s="39"/>
+      <c r="H15" s="46"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="18">
         <v>7.3</v>
       </c>
@@ -3720,9 +3766,9 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8"/>
-      <c r="J16" s="39"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="17">
         <v>8</v>
       </c>
@@ -3731,16 +3777,16 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8"/>
       <c r="E17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8"/>
       <c r="J18" s="4"/>
       <c r="K18" s="18"/>
@@ -3749,7 +3795,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8"/>
       <c r="E19" s="25" t="s">
         <v>22</v>
@@ -3763,7 +3809,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8"/>
       <c r="J20" s="4"/>
       <c r="K20" s="17">
@@ -3774,7 +3820,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
@@ -3820,17 +3866,17 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="17">
         <v>6.2</v>
       </c>
@@ -3839,17 +3885,17 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="17">
         <v>6.3</v>
       </c>
@@ -3858,17 +3904,17 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="17" t="s">
         <v>36</v>
       </c>
@@ -3877,17 +3923,17 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="17">
         <v>7.3</v>
       </c>
@@ -3896,17 +3942,17 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="17">
         <v>8</v>
       </c>
@@ -3935,7 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA48DBC-2A1E-4FDC-87FD-D35BE9BCBC0B}">
   <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3996,13 +4042,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="32" t="s">
         <v>78</v>
       </c>
       <c r="F5" t="s">
@@ -4221,6 +4267,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AAE920-45C5-4CEA-941D-3639AA4D7955}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9111AA00-9265-45C7-A3EB-BCF5F7B14F32}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4235,7 +4427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CB3BFF-BF20-4740-BF0B-17B05AC98E59}">
   <dimension ref="H4:N29"/>
   <sheetViews>

--- a/Program flowchart.V2.xlsx
+++ b/Program flowchart.V2.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive\Desktop\QF635\Project\QF635-2025-SMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11CD2A0-795F-4E8F-817E-B967B644B96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3199A0A9-4F89-4C00-8EC9-93CB867F2662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="855" windowWidth="18435" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="-2400" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flowchart" sheetId="1" r:id="rId1"/>
     <sheet name="Action items" sheetId="2" r:id="rId2"/>
     <sheet name="ppt planning" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="OrderManager" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="OrderManager" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -106,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="172">
   <si>
     <t>Pre-trade check</t>
   </si>
@@ -494,6 +495,147 @@
   </si>
   <si>
     <t>- Audit trail</t>
+  </si>
+  <si>
+    <t>Data Gateway</t>
+  </si>
+  <si>
+    <t>Order Gateway</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Positions Info</t>
+  </si>
+  <si>
+    <t>Candlesticks</t>
+  </si>
+  <si>
+    <t>Limited Order</t>
+  </si>
+  <si>
+    <t>Market Order</t>
+  </si>
+  <si>
+    <t>Open Orders</t>
+  </si>
+  <si>
+    <t>Stop Orders</t>
+  </si>
+  <si>
+    <t>Cancel orders</t>
+  </si>
+  <si>
+    <t>Order status</t>
+  </si>
+  <si>
+    <t>Signal Generator</t>
+  </si>
+  <si>
+    <t>Machine Learning Engine</t>
+  </si>
+  <si>
+    <t>Signal Filtering</t>
+  </si>
+  <si>
+    <t>Trading Dates/Hours</t>
+  </si>
+  <si>
+    <t>Soft circuit breaker</t>
+  </si>
+  <si>
+    <t>Decision Engine</t>
+  </si>
+  <si>
+    <t>Position sizing</t>
+  </si>
+  <si>
+    <t>Position opening logic</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Post Trade Management</t>
+  </si>
+  <si>
+    <t>Trailing Stop Loss/Taking Profit</t>
+  </si>
+  <si>
+    <t>Absolute Stop Loss/Taking Profit</t>
+  </si>
+  <si>
+    <t>Margin monitoring</t>
+  </si>
+  <si>
+    <t>Dynamic Hard Stop Loss maintainance</t>
+  </si>
+  <si>
+    <t>Risk Matrix</t>
+  </si>
+  <si>
+    <t>- VaR</t>
+  </si>
+  <si>
+    <t>- PnL</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Order Execution</t>
+  </si>
+  <si>
+    <t>- Smart execution</t>
+  </si>
+  <si>
+    <t>- Direct markt order execution</t>
+  </si>
+  <si>
+    <t>Emergency Square Off</t>
+  </si>
+  <si>
+    <t>Data Base</t>
+  </si>
+  <si>
+    <t>Order_manager</t>
+  </si>
+  <si>
+    <t>Signal and execution Tracker</t>
+  </si>
+  <si>
+    <t>Risk Data</t>
+  </si>
+  <si>
+    <t>Signal, Position sizing</t>
+  </si>
+  <si>
+    <t>Warning Alert</t>
+  </si>
+  <si>
+    <t>Critical Alert</t>
+  </si>
+  <si>
+    <t>Start/Stop</t>
+  </si>
+  <si>
+    <t>Emergency square-off</t>
+  </si>
+  <si>
+    <t>Signals and execution</t>
+  </si>
+  <si>
+    <t>Price information</t>
+  </si>
+  <si>
+    <t>Position and risk exposure</t>
   </si>
 </sst>
 </file>
@@ -613,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -673,11 +815,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -793,6 +997,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3116,6 +3340,1980 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A685A8-B7A4-8444-71AA-D8BF071968D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12011025" y="1857375"/>
+          <a:ext cx="590550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1516380</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690282DD-BB8F-219D-9648-B51458FD023B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8764905" y="1859280"/>
+          <a:ext cx="586740" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1414808E-BB82-E10C-7963-F2641A872116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="2162175"/>
+          <a:ext cx="0" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1680882</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1680882</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF74CDD-28FA-AE23-5173-5175D1DC7F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1143000"/>
+          <a:ext cx="0" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1682787</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1053353</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96703B68-018F-825C-6878-EA3FA7466536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2287905" y="1133698"/>
+          <a:ext cx="11394477" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1030942</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1030942</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9DB0DE-EF6D-3FAC-1C6B-9B4FAEFABC86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13659971" y="1129889"/>
+          <a:ext cx="0" cy="237229"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1657798</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1657798</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF391537-2874-1A99-928A-65A940C85BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2262916" y="2532529"/>
+          <a:ext cx="0" cy="1404771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>668543</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>668543</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707E50A0-E251-8B99-69EC-2379C62EB575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3503631" y="3565376"/>
+          <a:ext cx="0" cy="377190"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2222574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2222574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1475977-CA9D-CFFC-BD7F-BE70D699C6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2831245" y="2778512"/>
+          <a:ext cx="0" cy="1224969"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C276EF30-55D6-E25F-AAA6-4709A5B81CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485029" y="3567280"/>
+          <a:ext cx="9513795" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272751</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272751</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CA5699-B174-76B8-1C45-39C33FCCBE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12978317" y="2510118"/>
+          <a:ext cx="0" cy="1094366"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13111</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Connector 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E924B3AE-D28E-30CF-6B71-6CB66C66CDD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2835088" y="2754742"/>
+          <a:ext cx="2422376" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>181199</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>597721</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0D4FEB-BDA7-3D40-FA22-58D88A0B0918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4820434" y="4415118"/>
+          <a:ext cx="416522" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636A2356-9099-80CB-F1BB-694BEAFACB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4818529" y="5490883"/>
+          <a:ext cx="414617" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171899</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Straight Connector 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BCA999-8862-49C9-87D1-C516F1E2B31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4811134" y="3585882"/>
+          <a:ext cx="0" cy="1893794"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>770474</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>770474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FB89BD-281B-0271-60BE-F2C932A72B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032215" y="3750879"/>
+          <a:ext cx="0" cy="282466"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>772021</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>772021</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121272</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Straight Connector 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302F43A4-10CF-CE24-FC2F-C8DA960D48EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6031758" y="2897570"/>
+          <a:ext cx="0" cy="659160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774915</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Freeform: Shape 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9676E82-66AD-3E61-4346-5AFEDBD7315C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6034652" y="3555667"/>
+          <a:ext cx="91735" cy="121952"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 3229 w 93640"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 116237"/>
+            <a:gd name="connsiteX1" fmla="*/ 93636 w 93640"/>
+            <a:gd name="connsiteY1" fmla="*/ 51661 h 116237"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 93640"/>
+            <a:gd name="connsiteY2" fmla="*/ 116237 h 116237"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="93640" h="116237">
+              <a:moveTo>
+                <a:pt x="3229" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="48701" y="16144"/>
+                <a:pt x="94174" y="32288"/>
+                <a:pt x="93636" y="51661"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="93098" y="71034"/>
+                <a:pt x="43051" y="89330"/>
+                <a:pt x="0" y="116237"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Arrow Connector 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61A95FC-1A8F-4F1D-F38E-9B9A4F88E35A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867775" y="4124325"/>
+          <a:ext cx="3895725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247624ED-6225-5928-2A7D-AD21073BA3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6105525" y="5048250"/>
+          <a:ext cx="0" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13111</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Arrow Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2D175A-DA16-24F5-D920-D5BC713E96FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15544464" y="1964391"/>
+          <a:ext cx="580801" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD46DA4-BD12-5452-7AF9-9B293E070DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14784705" y="4526280"/>
+          <a:ext cx="598170" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F76945-50C9-25B2-0E8A-E91EDA182D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14784705" y="5535930"/>
+          <a:ext cx="598170" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E0E77E-F4B6-13A0-AE13-1972EAF7B938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14788515" y="6772275"/>
+          <a:ext cx="594360" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Arrow Connector 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2636362-9576-F62A-F615-CEE8076D1ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8845475" y="5710294"/>
+          <a:ext cx="3877236" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348848</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348848</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="Straight Connector 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F712A8-B8CE-AFD1-68E1-D7D10D9BA629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5002491" y="2813957"/>
+          <a:ext cx="0" cy="723796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351742</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Freeform: Shape 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC6C188-A90E-DF00-5333-E2CCDAC794B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5002570" y="3616804"/>
+          <a:ext cx="86020" cy="119355"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 3229 w 93640"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 116237"/>
+            <a:gd name="connsiteX1" fmla="*/ 93636 w 93640"/>
+            <a:gd name="connsiteY1" fmla="*/ 51661 h 116237"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 93640"/>
+            <a:gd name="connsiteY2" fmla="*/ 116237 h 116237"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="93640" h="116237">
+              <a:moveTo>
+                <a:pt x="3229" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="48701" y="16144"/>
+                <a:pt x="94174" y="32288"/>
+                <a:pt x="93636" y="51661"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="93098" y="71034"/>
+                <a:pt x="43051" y="89330"/>
+                <a:pt x="0" y="116237"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441572</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Freeform: Shape 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE56920-DE57-AF3C-E06B-F5C99237A9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4992882" y="2712577"/>
+          <a:ext cx="87925" cy="109003"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 3229 w 93640"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 116237"/>
+            <a:gd name="connsiteX1" fmla="*/ 93636 w 93640"/>
+            <a:gd name="connsiteY1" fmla="*/ 51661 h 116237"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 93640"/>
+            <a:gd name="connsiteY2" fmla="*/ 116237 h 116237"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="93640" h="116237">
+              <a:moveTo>
+                <a:pt x="3229" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="48701" y="16144"/>
+                <a:pt x="94174" y="32288"/>
+                <a:pt x="93636" y="51661"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="93098" y="71034"/>
+                <a:pt x="43051" y="89330"/>
+                <a:pt x="0" y="116237"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Straight Arrow Connector 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DA2237-3FD3-DD08-BEC8-987417781022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4986618" y="4112559"/>
+          <a:ext cx="280147" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Straight Connector 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2730330F-3F26-78A1-A094-2F4F10A296E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4997824" y="3632611"/>
+          <a:ext cx="0" cy="502360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>362399</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>362399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="Straight Connector 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0501BF-850A-1207-46B3-F453933E55E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5016042" y="1899557"/>
+          <a:ext cx="0" cy="814796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364671</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="Straight Connector 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A198E2-CD30-D236-6F71-A4A8A481A590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4044043" y="1910443"/>
+          <a:ext cx="974271" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330014</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330014</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="Straight Connector 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5085E04B-21A6-7EEC-47D9-CC5D6B90F7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330014" y="1912620"/>
+          <a:ext cx="0" cy="4945380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Straight Connector 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862996ED-153B-ABC4-38A6-505FA2C0324E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="1924050"/>
+          <a:ext cx="291465" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="Straight Arrow Connector 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779A38FA-5409-4484-2127-474407043F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="6837045"/>
+          <a:ext cx="12565380" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3565,8 +5763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4270,7 +6468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AAE920-45C5-4CEA-941D-3639AA4D7955}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4413,6 +6611,332 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD838D8-7E59-4EA8-8BAD-934E2E55628E}">
+  <dimension ref="B9:O39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X42" sqref="X42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="F10" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="I10" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="L10" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="50"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="F11" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="I11" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="L11" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="50"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="I12" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="L12" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="L13" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="L14" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="52"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" s="58"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="58"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O18" s="58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O20" s="58"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="F24" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="L24" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="50"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="F25" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="L25" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="50"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="L26" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="50"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F27" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="L27" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" s="52"/>
+      <c r="O27" s="57"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F31" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="L32" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="M32" s="50"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F33" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="L33" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="50"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="L34" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="50"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L35" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="M35" s="50"/>
+      <c r="O35" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="L36" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="M36" s="52"/>
+      <c r="O36" s="59"/>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="L38" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="L39" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="M39" s="52"/>
+      <c r="O39" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9111AA00-9265-45C7-A3EB-BCF5F7B14F32}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4427,7 +6951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CB3BFF-BF20-4740-BF0B-17B05AC98E59}">
   <dimension ref="H4:N29"/>
   <sheetViews>
